--- a/OpenSSL指南.xlsx
+++ b/OpenSSL指南.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DD4671FA-82F1-4FC0-950D-95286224D34C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9DCA59E0-4BE8-4B02-BABC-E82B485D65D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="证书签发" sheetId="1" r:id="rId1"/>
+    <sheet name="Tomcat HTTPS请求" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,17 +21,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>1.生成CA密钥对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书签发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>mkdir -p /srv/ftp/cas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl genrsa -out /srv/ftp/cas/cakey.pem 2048 RSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成了一个2048Bit长度的秘钥对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl req -new -key /srv/ftp/cas/cakey.pem -out /srv/ftp/cas/cacert.csr -subj /CN=cas.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成签发申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成了cacert.csr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成了一个X509证书，有效时间是5650天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl x509 -req -days 3650 -sha1 -extensions v3_ca -signkey /srv/ftp/cas/cakey.pem -in /srv/ftp/cas/cacert.csr -out /srv/ftp/cas/ca.cer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根证书签发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /srv/ftp/cas/server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl genrsa -aes256 -out /srv/ftp/cas/server/server-key.pem 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置私钥密码，如1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl req -new -key /srv/ftp/cas/server/server-key.pem -out /srv/ftp/cas/server/server.csr -subj /CN=cas.com</t>
+  </si>
+  <si>
+    <t>openssl x509 -req -days 3650 -sha1 -extensions v3_req -CA /srv/ftp/cas/ca.cer -CAkey /srv/ftp/cas/cakey.pem -CAserial /srv/ftp/cas/server/ca.srl -CAcreateserial -in /srv/ftp/cas/server/server.csr -out /srv/ftp/cas/server/server.cer</t>
+  </si>
+  <si>
+    <t>mkdir -p /srv/ftp/cas/client</t>
+  </si>
+  <si>
+    <t>openssl genrsa -aes256 -out /srv/ftp/cas/client/client-key.pem 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl req -new -key /srv/ftp/cas/client/client-key.pem -out /srv/ftp/cas/client/client.csr -subj /CN=cas.com</t>
+  </si>
+  <si>
+    <t>openssl x509 -req -days 365 -sha1 -CA /srv/ftp/cas/ca.cer -CAkey /srv/ftp/cas/cakey.pem -CAserial /srv/ftp/cas/server/ca.srl -in /srv/ftp/cas/client/client.csr -out /srv/ftp/cas/client/client.cer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端证书申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成JAVA证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl pkcs12 -export -clcerts -name cas-client -inkey /srv/ftp/cas/client/client-key.pem -in /srv/ftp/cas/client/client.cer -out /srv/ftp/cas/client/client.p12</t>
+  </si>
+  <si>
+    <t>客户端浏览器使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl pkcs12 -export -clcerts -name cas-server -inkey /srv/ftp/cas/server/server-key.pem -in /srv/ftp/cas/server/server.cer -out /srv/ftp/cas/server/server.p12</t>
+  </si>
+  <si>
+    <t>服务端Tomcat使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat路径需要自己定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keytool -importcert -trustcacerts -alias cas.com -file /srv/ftp/cas/ca.cer -keystore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/usr/local/tomcat1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ca-trust.p12</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keytool -list -keystore /srv/ftp/cas/client/client.p12 -storetype pkcs12 -v</t>
+  </si>
+  <si>
+    <t>查看证书信息。 注意，此处密码跟上一步的不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是在服务器端提供证书，客户端连接以后都可以获得这个公钥。加密后服务器端可以利用私钥进行解密处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Connector      port="443" protocol="HTTP/1.1" maxThreads="150" SSLEnabled="true"       scheme="https" secure="true"  clientAuth="false" sslProtocol="TLS"   keystoreFile="/srv/ftp/cas/server/server.p12"   keystoreType="pkcs12"  keystorePass="1234" /&gt;</t>
+  </si>
+  <si>
+    <t>修改Tomcat配置文件 server.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防火墙设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +188,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -98,6 +246,632 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608752</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D23CA0-D310-4783-A3A0-D5EDB18D8BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1047750"/>
+          <a:ext cx="6780952" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656629</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDEBDEB-BF0A-42C4-8FC6-A4D45C3BB862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2552700"/>
+          <a:ext cx="4771429" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46762</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781C72B8-4530-44E9-B32C-8DA360B7FE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4162425"/>
+          <a:ext cx="6904762" cy="1133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665895</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6E2FDC-99E6-4AD1-86C4-419BAFF92AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6943725"/>
+          <a:ext cx="6838095" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18190</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>18957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA92ED7-672B-419B-ABCB-C73AEAD20606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9410700"/>
+          <a:ext cx="6876190" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675419</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F4DD58-0536-4468-A128-688F6D42AF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11039475"/>
+          <a:ext cx="6847619" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>132854</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>180148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B097A79C-35A7-4D44-8384-7697001DB84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14415135" y="13382625"/>
+          <a:ext cx="2176919" cy="3628198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656371</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277DEBC6-C415-4FC7-A21C-E2CDB2EEBE15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14116050"/>
+          <a:ext cx="6828571" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>684943</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46070497-2533-48AB-A41F-2B7B0B7BF597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16230600"/>
+          <a:ext cx="6857143" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675419</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>171315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B0E1B8-8CB4-47FF-ABE2-77948E9F4B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17916525"/>
+          <a:ext cx="6847619" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247888</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>560331</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE10A98-5E57-4A11-874A-D6FBE453395F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906488" y="20059649"/>
+          <a:ext cx="8542043" cy="4533901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56286</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>180530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE971D0-AC4C-40A7-AFF2-BDE138F98506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21412200"/>
+          <a:ext cx="6914286" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37238</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>75533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843731E8-3615-4E31-B91D-7DF6C05C9AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26412825"/>
+          <a:ext cx="6895238" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94381</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B725D13-6AEC-40A7-9E10-BED0BFC296B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1885950"/>
+          <a:ext cx="6952381" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,32 +1137,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:P145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="Q145" sqref="Q145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="P112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="P115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="L145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737BBED-F7D9-4584-89C2-953A1AD42CD3}">
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OpenSSL指南.xlsx
+++ b/OpenSSL指南.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9DCA59E0-4BE8-4B02-BABC-E82B485D65D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="证书签发" sheetId="1" r:id="rId1"/>
-    <sheet name="Tomcat HTTPS请求" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenSSL" sheetId="3" r:id="rId1"/>
+    <sheet name="证书签发" sheetId="1" r:id="rId2"/>
+    <sheet name="Tomcat HTTPS请求" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>mkdir -p /srv/ftp/cas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>openssl genrsa -out /srv/ftp/cas/cakey.pem 2048 RSA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>openssl req -new -key /srv/ftp/cas/cakey.pem -out /srv/ftp/cas/cacert.csr -subj /CN=cas.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生成签发申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,35 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mkdir -p /srv/ftp/cas/server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openssl genrsa -aes256 -out /srv/ftp/cas/server/server-key.pem 2048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置私钥密码，如1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openssl req -new -key /srv/ftp/cas/server/server-key.pem -out /srv/ftp/cas/server/server.csr -subj /CN=cas.com</t>
-  </si>
-  <si>
-    <t>openssl x509 -req -days 3650 -sha1 -extensions v3_req -CA /srv/ftp/cas/ca.cer -CAkey /srv/ftp/cas/cakey.pem -CAserial /srv/ftp/cas/server/ca.srl -CAcreateserial -in /srv/ftp/cas/server/server.csr -out /srv/ftp/cas/server/server.cer</t>
-  </si>
-  <si>
-    <t>mkdir -p /srv/ftp/cas/client</t>
-  </si>
-  <si>
-    <t>openssl genrsa -aes256 -out /srv/ftp/cas/client/client-key.pem 2048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openssl req -new -key /srv/ftp/cas/client/client-key.pem -out /srv/ftp/cas/client/client.csr -subj /CN=cas.com</t>
-  </si>
-  <si>
-    <t>openssl x509 -req -days 365 -sha1 -CA /srv/ftp/cas/ca.cer -CAkey /srv/ftp/cas/cakey.pem -CAserial /srv/ftp/cas/server/ca.srl -in /srv/ftp/cas/client/client.csr -out /srv/ftp/cas/client/client.cer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,11 +137,59 @@
     <t>开启防火墙设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>查看是否集成了OpenSSl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opensl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /srv/ftp/cas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl req -new -key /srv/ftp/cas/cakey.pem -out /srv/ftp/cas/cacert.csr -subj /CN=cas.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /srv/ftp/cas/server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl x509 -req -days 3650 -sha1 -extensions v3_req -CA /srv/ftp/cas/ca.cer -CAkey /srv/ftp/cas/cakey.pem -CAserial /srv/ftp/cas/server/ca.srl -CAcreateserial -in /srv/ftp/cas/server/server.csr -out /srv/ftp/cas/server/server.cer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl genrsa -aes256 -out /srv/ftp/cas/server/server-key.pem 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl req -new -key /srv/ftp/cas/server/server-key.pem -out /srv/ftp/cas/server/server.csr -subj /CN=cas.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /srv/ftp/cas/client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl genrsa -aes256 -out /srv/ftp/cas/client/client-key.pem 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl req -new -key /srv/ftp/cas/client/client-key.pem -out /srv/ftp/cas/client/client.csr -subj /CN=cas.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl x509 -req -days 365 -sha1 -CA /srv/ftp/cas/ca.cer -CAkey /srv/ftp/cas/cakey.pem -CAserial /srv/ftp/cas/server/ca.srl -in /srv/ftp/cas/client/client.csr -out /srv/ftp/cas/client/client.cer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +280,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D23CA0-D310-4783-A3A0-D5EDB18D8BD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D23CA0-D310-4783-A3A0-D5EDB18D8BD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,7 +324,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDEBDEB-BF0A-42C4-8FC6-A4D45C3BB862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EDEBDEB-BF0A-42C4-8FC6-A4D45C3BB862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -356,7 +368,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781C72B8-4530-44E9-B32C-8DA360B7FE11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{781C72B8-4530-44E9-B32C-8DA360B7FE11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -400,7 +412,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6E2FDC-99E6-4AD1-86C4-419BAFF92AAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B6E2FDC-99E6-4AD1-86C4-419BAFF92AAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -444,7 +456,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA92ED7-672B-419B-ABCB-C73AEAD20606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BA92ED7-672B-419B-ABCB-C73AEAD20606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -488,7 +500,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F4DD58-0536-4468-A128-688F6D42AF92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61F4DD58-0536-4468-A128-688F6D42AF92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -532,7 +544,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B097A79C-35A7-4D44-8384-7697001DB84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B097A79C-35A7-4D44-8384-7697001DB84A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -576,7 +588,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277DEBC6-C415-4FC7-A21C-E2CDB2EEBE15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{277DEBC6-C415-4FC7-A21C-E2CDB2EEBE15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -620,7 +632,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46070497-2533-48AB-A41F-2B7B0B7BF597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46070497-2533-48AB-A41F-2B7B0B7BF597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -664,7 +676,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B0E1B8-8CB4-47FF-ABE2-77948E9F4B6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34B0E1B8-8CB4-47FF-ABE2-77948E9F4B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,7 +720,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE10A98-5E57-4A11-874A-D6FBE453395F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBE10A98-5E57-4A11-874A-D6FBE453395F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -752,7 +764,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE971D0-AC4C-40A7-AFF2-BDE138F98506}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE971D0-AC4C-40A7-AFF2-BDE138F98506}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,7 +808,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843731E8-3615-4E31-B91D-7DF6C05C9AC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{843731E8-3615-4E31-B91D-7DF6C05C9AC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,7 +857,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B725D13-6AEC-40A7-9E10-BED0BFC296B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B725D13-6AEC-40A7-9E10-BED0BFC296B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,87 +1148,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="Q145" sqref="Q145"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
@@ -1224,59 +1266,59 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P112" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P115" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M118" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L145" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1287,11 +1329,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737BBED-F7D9-4584-89C2-953A1AD42CD3}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1299,27 +1341,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
